--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/35_Gümüşhane_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/35_Gümüşhane_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9585658B-C0DA-4990-B361-6C461FB6DCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46418894-AB34-4DFE-9FCD-9505ABC7D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{A10C74DF-5148-4284-9801-EF82E313CFD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{EECCBD0B-8F94-41F3-A2CB-665EB1C12BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{888D1DBC-F961-43F3-84EE-E44174E2F412}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D62E7222-6A35-4378-855C-EA65AF409DE1}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{3EF7838B-A9A5-403C-989B-FEAA8DAE1AE2}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1334E92E-36C1-4EA7-AF94-655B056DFEE3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{4B6025FA-2402-4653-AED1-23E864F82C78}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{4A7CE58E-03C1-4996-A91E-F6B7B42B1EE7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{952E1653-F6E5-4E8E-8239-C93FD893CDE1}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DFDEC79F-3EDE-49F8-9233-E8CDC9DC8C06}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1C64F8A3-E622-48CF-AD4E-6921617761B7}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{6523E990-6D79-4FF0-8102-A8B9E46673E5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4041DFDD-8C1A-4355-AF0D-513C0DF88A0E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{5ABEA9AD-D505-4552-B0F4-88F4164571DC}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{01241A01-9244-47FA-B02D-AC0D760FC8E8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{4548542F-6246-42B0-952C-71F6605AB007}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D1D5B-CED9-4258-947D-8A73DA0060B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02210E04-07C0-4F85-BFDF-775A437D9C04}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2547,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878974E6-3F29-4226-B9B5-B78149BBC840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F764C29-5EAA-412C-B0BD-9C2679CFF099}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3768,7 +3768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A89287-918B-410C-84FF-30AF4CFEB442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAF7666-29AF-4598-BE8C-4791B8ADD76E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4955,7 +4955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E179E298-5BB9-4FCD-B976-3DEA0E07C8C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D549367C-EE62-40E9-B2B4-AFB5FD8BD53D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6138,7 +6138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65876574-C9C2-4756-B203-B7D24C091936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC2D42F-2BDC-4E8E-A1E7-6F01778BAADD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7397,7 +7397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BD03EB-3381-4E8C-82DA-D1E0E547AE15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA1C040-BDF7-40A1-80A3-FE732D089B9B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8656,7 +8656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815AC391-A394-4B90-A4E3-F1E61EFB3654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A25C4A-0369-4EE2-9FED-1645F65E1846}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9911,7 +9911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8245EC94-DA8A-4838-AEA8-7BBC61E4D797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2747F1-7987-4B1A-929A-645E1D654DD0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11160,7 +11160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D6253C-9D55-4E56-831F-644541AA4690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C58AC5-21AC-4E6C-A4C2-B3D12F01421D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12409,7 +12409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976940A3-DA4F-4F39-9DEC-BE02EC1BB908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826A680A-38F7-480C-AA1B-140EB1877A44}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13646,7 +13646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340F680B-9B7D-4DBC-9671-664D2A79FF3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BF68A8-32C7-4149-9E96-A4CF94C8A821}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14887,7 +14887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF6D00-13AA-405F-8FAA-B594D9303848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C442D4-FFE4-4125-B2D1-1522255E6714}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
